--- a/ELF.xlsx
+++ b/ELF.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05649657-BBDE-4B96-98F7-C8600D1F79F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BAA10B-0E74-4C73-BE7D-F891F8E71446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7988AE19-931E-46C1-9F7B-A4A68F0CA97C}"/>
   </bookViews>
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -346,11 +346,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -370,6 +365,9 @@
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -445,16 +443,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>7327</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>16119</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:rowOff>139211</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -469,8 +467,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7781192" y="7327"/>
-          <a:ext cx="8792" cy="12067442"/>
+          <a:off x="8513566" y="0"/>
+          <a:ext cx="8792" cy="12397472"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -816,7 +814,7 @@
   <dimension ref="J2:L7"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -826,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="10:12" x14ac:dyDescent="0.2">
@@ -834,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="K3" s="1">
-        <v>56.331037999999999</v>
+        <v>58.353219000000003</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="10:12" x14ac:dyDescent="0.2">
@@ -846,7 +844,7 @@
       </c>
       <c r="K4" s="1">
         <f>+K2*K3</f>
-        <v>6252.745218</v>
+        <v>4143.0785489999998</v>
       </c>
     </row>
     <row r="5" spans="10:12" x14ac:dyDescent="0.2">
@@ -854,10 +852,11 @@
         <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>96.768000000000001</v>
+        <f>+Model!M47</f>
+        <v>73.844999999999999</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="10:12" x14ac:dyDescent="0.2">
@@ -865,11 +864,11 @@
         <v>4</v>
       </c>
       <c r="K6" s="1">
-        <f>100.25+156.648</f>
-        <v>256.89800000000002</v>
+        <f>+Model!M57</f>
+        <v>254.31100000000001</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="10:12" x14ac:dyDescent="0.2">
@@ -878,7 +877,7 @@
       </c>
       <c r="K7" s="1">
         <f>+K4-K5+K6</f>
-        <v>6412.8752180000001</v>
+        <v>4323.5445490000002</v>
       </c>
     </row>
   </sheetData>
@@ -891,10 +890,10 @@
   <dimension ref="A1:BR68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W6" sqref="W6"/>
+      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -987,7 +986,7 @@
         <v>46842</v>
       </c>
       <c r="Y2" s="10">
-        <f t="shared" ref="Y2:AG2" si="0">+X2+365</f>
+        <f t="shared" ref="Y2:AE2" si="0">+X2+365</f>
         <v>47207</v>
       </c>
       <c r="Z2" s="10">
@@ -1070,420 +1069,420 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
+    <row r="4" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="22">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="19">
         <v>0.31</v>
       </c>
-      <c r="Q4" s="21">
+      <c r="Q4" s="18">
         <v>0.22</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R4" s="18">
         <v>0.23</v>
       </c>
-      <c r="S4" s="21">
+      <c r="S4" s="18">
         <v>0.25</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="18">
         <v>0.25</v>
       </c>
-      <c r="U4" s="21">
+      <c r="U4" s="18">
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="22">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="19">
         <v>0.22</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="Q5" s="18">
         <v>0.26</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="18">
         <v>0.26</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="18">
         <v>0.2</v>
       </c>
-      <c r="T5" s="21">
+      <c r="T5" s="18">
         <v>0.17</v>
       </c>
-      <c r="U5" s="21">
+      <c r="U5" s="18">
         <v>0.17</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="22">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="19">
         <v>0</v>
       </c>
-      <c r="Q6" s="21">
+      <c r="Q6" s="18">
         <v>0</v>
       </c>
-      <c r="R6" s="21">
+      <c r="R6" s="18">
         <v>0.12</v>
       </c>
-      <c r="S6" s="21">
+      <c r="S6" s="18">
         <v>0.15</v>
       </c>
-      <c r="T6" s="21">
+      <c r="T6" s="18">
         <v>0.16</v>
       </c>
-      <c r="U6" s="21">
+      <c r="U6" s="18">
         <v>0.16</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="25" t="s">
+    <row r="7" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="21">
-        <f>1-P6-P5-P4</f>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="18">
+        <f t="shared" ref="P7:U7" si="1">1-P6-P5-P4</f>
         <v>0.47000000000000003</v>
       </c>
-      <c r="Q7" s="21">
-        <f>1-Q6-Q5-Q4</f>
+      <c r="Q7" s="18">
+        <f t="shared" si="1"/>
         <v>0.52</v>
       </c>
-      <c r="R7" s="21">
-        <f>1-R6-R5-R4</f>
+      <c r="R7" s="18">
+        <f t="shared" si="1"/>
         <v>0.39</v>
       </c>
-      <c r="S7" s="21">
-        <f>1-S6-S5-S4</f>
+      <c r="S7" s="18">
+        <f t="shared" si="1"/>
         <v>0.39999999999999991</v>
       </c>
-      <c r="T7" s="21">
-        <f>1-T6-T5-T4</f>
+      <c r="T7" s="18">
+        <f t="shared" si="1"/>
         <v>0.41999999999999993</v>
       </c>
-      <c r="U7" s="21">
-        <f>1-U6-U5-U4</f>
+      <c r="U7" s="18">
+        <f t="shared" si="1"/>
         <v>0.41999999999999993</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-    </row>
-    <row r="9" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="23" t="s">
+    <row r="8" spans="1:33" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+    </row>
+    <row r="9" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="23">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="20">
         <f>+P4*$P$13</f>
         <v>87.683809999999994</v>
       </c>
-      <c r="Q9" s="23">
+      <c r="Q9" s="20">
         <f>+Q4*$Q$13</f>
         <v>69.984200000000001</v>
       </c>
-      <c r="R9" s="23">
+      <c r="R9" s="20">
         <f>+R4*$R$13</f>
         <v>90.195650000000001</v>
       </c>
-      <c r="S9" s="23">
+      <c r="S9" s="20">
         <f>+S4*$S$13</f>
         <v>144.71100000000001</v>
       </c>
-      <c r="T9" s="23">
+      <c r="T9" s="20">
         <f>+T4*$T$13</f>
         <v>255.983</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="20">
         <f>+U4*$U$13</f>
-        <v>356.21702499999998</v>
-      </c>
-      <c r="V9" s="25">
+        <v>347.18090249999995</v>
+      </c>
+      <c r="V9" s="22">
         <f>+U9*1.1</f>
-        <v>391.8387275</v>
-      </c>
-      <c r="W9" s="25">
-        <f t="shared" ref="W9:AE9" si="1">+V9*1.07</f>
-        <v>419.26743842500002</v>
-      </c>
-      <c r="X9" s="25">
-        <f t="shared" si="1"/>
-        <v>448.61615911475008</v>
-      </c>
-      <c r="Y9" s="25">
-        <f t="shared" si="1"/>
-        <v>480.01929025278258</v>
-      </c>
-      <c r="Z9" s="25">
-        <f t="shared" si="1"/>
-        <v>513.62064057047735</v>
-      </c>
-      <c r="AA9" s="25">
-        <f t="shared" si="1"/>
-        <v>549.57408541041082</v>
-      </c>
-      <c r="AB9" s="25">
-        <f t="shared" si="1"/>
-        <v>588.04427138913957</v>
-      </c>
-      <c r="AC9" s="25">
-        <f t="shared" si="1"/>
-        <v>629.20737038637935</v>
-      </c>
-      <c r="AD9" s="25">
-        <f t="shared" si="1"/>
-        <v>673.25188631342598</v>
-      </c>
-      <c r="AE9" s="25">
-        <f t="shared" si="1"/>
-        <v>720.3795183553658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23" t="s">
+        <v>381.89899274999999</v>
+      </c>
+      <c r="W9" s="22">
+        <f t="shared" ref="W9:AE9" si="2">+V9*1.07</f>
+        <v>408.63192224250002</v>
+      </c>
+      <c r="X9" s="22">
+        <f t="shared" si="2"/>
+        <v>437.23615679947505</v>
+      </c>
+      <c r="Y9" s="22">
+        <f t="shared" si="2"/>
+        <v>467.84268777543832</v>
+      </c>
+      <c r="Z9" s="22">
+        <f t="shared" si="2"/>
+        <v>500.59167591971902</v>
+      </c>
+      <c r="AA9" s="22">
+        <f t="shared" si="2"/>
+        <v>535.63309323409942</v>
+      </c>
+      <c r="AB9" s="22">
+        <f t="shared" si="2"/>
+        <v>573.12740976048644</v>
+      </c>
+      <c r="AC9" s="22">
+        <f t="shared" si="2"/>
+        <v>613.24632844372059</v>
+      </c>
+      <c r="AD9" s="22">
+        <f t="shared" si="2"/>
+        <v>656.17357143478102</v>
+      </c>
+      <c r="AE9" s="22">
+        <f t="shared" si="2"/>
+        <v>702.10572143521574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="23">
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="20">
         <f>+P5*$P$13</f>
         <v>62.227220000000003</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="20">
         <f>+Q5*$Q$13</f>
         <v>82.708600000000004</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R10" s="20">
         <f>+R5*$R$13</f>
         <v>101.96029999999999</v>
       </c>
-      <c r="S10" s="23">
+      <c r="S10" s="20">
         <f>+S5*$S$13</f>
         <v>115.76880000000001</v>
       </c>
-      <c r="T10" s="23">
+      <c r="T10" s="20">
         <f>+T5*$T$13</f>
         <v>174.06844000000001</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="20">
         <f>+U5*$U$13</f>
-        <v>242.227577</v>
-      </c>
-      <c r="V10" s="25">
+        <v>236.08301369999998</v>
+      </c>
+      <c r="V10" s="22">
         <f>+U10*1.1</f>
-        <v>266.45033470000004</v>
-      </c>
-      <c r="W10" s="25">
-        <f t="shared" ref="W10:AE10" si="2">+V10*1.07</f>
-        <v>285.10185812900005</v>
-      </c>
-      <c r="X10" s="25">
-        <f t="shared" si="2"/>
-        <v>305.05898819803008</v>
-      </c>
-      <c r="Y10" s="25">
-        <f t="shared" si="2"/>
-        <v>326.41311737189221</v>
-      </c>
-      <c r="Z10" s="25">
-        <f t="shared" si="2"/>
-        <v>349.26203558792469</v>
-      </c>
-      <c r="AA10" s="25">
-        <f t="shared" si="2"/>
-        <v>373.71037807907942</v>
-      </c>
-      <c r="AB10" s="25">
-        <f t="shared" si="2"/>
-        <v>399.870104544615</v>
-      </c>
-      <c r="AC10" s="25">
-        <f t="shared" si="2"/>
-        <v>427.86101186273805</v>
-      </c>
-      <c r="AD10" s="25">
-        <f t="shared" si="2"/>
-        <v>457.81128269312973</v>
-      </c>
-      <c r="AE10" s="25">
-        <f t="shared" si="2"/>
-        <v>489.85807248164883</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23" t="s">
+        <v>259.69131506999997</v>
+      </c>
+      <c r="W10" s="22">
+        <f t="shared" ref="W10:AE10" si="3">+V10*1.07</f>
+        <v>277.8697071249</v>
+      </c>
+      <c r="X10" s="22">
+        <f t="shared" si="3"/>
+        <v>297.32058662364301</v>
+      </c>
+      <c r="Y10" s="22">
+        <f t="shared" si="3"/>
+        <v>318.13302768729801</v>
+      </c>
+      <c r="Z10" s="22">
+        <f t="shared" si="3"/>
+        <v>340.4023396254089</v>
+      </c>
+      <c r="AA10" s="22">
+        <f t="shared" si="3"/>
+        <v>364.23050339918757</v>
+      </c>
+      <c r="AB10" s="22">
+        <f t="shared" si="3"/>
+        <v>389.72663863713075</v>
+      </c>
+      <c r="AC10" s="22">
+        <f t="shared" si="3"/>
+        <v>417.00750334172994</v>
+      </c>
+      <c r="AD10" s="22">
+        <f t="shared" si="3"/>
+        <v>446.19802857565105</v>
+      </c>
+      <c r="AE10" s="22">
+        <f t="shared" si="3"/>
+        <v>477.43189057594662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="23">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="20">
         <f>+P6*$P$13</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="23">
+      <c r="Q11" s="20">
         <f>+Q6*$Q$13</f>
         <v>0</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="20">
         <f>+R6*$R$13</f>
         <v>47.058599999999998</v>
       </c>
-      <c r="S11" s="23">
+      <c r="S11" s="20">
         <f>+S6*$S$13</f>
         <v>86.826599999999999</v>
       </c>
-      <c r="T11" s="23">
+      <c r="T11" s="20">
         <f>+T6*$T$13</f>
         <v>163.82912000000002</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="20">
         <f>+U6*$U$13</f>
-        <v>227.97889599999999</v>
-      </c>
-      <c r="V11" s="25">
+        <v>222.19577759999996</v>
+      </c>
+      <c r="V11" s="22">
         <f>+U11*1.1</f>
-        <v>250.77678560000001</v>
-      </c>
-      <c r="W11" s="25">
-        <f t="shared" ref="W11:AE11" si="3">+V11*1.07</f>
-        <v>268.331160592</v>
-      </c>
-      <c r="X11" s="25">
-        <f t="shared" si="3"/>
-        <v>287.11434183343999</v>
-      </c>
-      <c r="Y11" s="25">
-        <f t="shared" si="3"/>
-        <v>307.2123457617808</v>
-      </c>
-      <c r="Z11" s="25">
-        <f t="shared" si="3"/>
-        <v>328.7172099651055</v>
-      </c>
-      <c r="AA11" s="25">
-        <f t="shared" si="3"/>
-        <v>351.72741466266291</v>
-      </c>
-      <c r="AB11" s="25">
-        <f t="shared" si="3"/>
-        <v>376.34833368904935</v>
-      </c>
-      <c r="AC11" s="25">
-        <f t="shared" si="3"/>
-        <v>402.69271704728283</v>
-      </c>
-      <c r="AD11" s="25">
-        <f t="shared" si="3"/>
-        <v>430.88120724059263</v>
-      </c>
-      <c r="AE11" s="25">
-        <f t="shared" si="3"/>
-        <v>461.04289174743417</v>
+        <v>244.41535535999998</v>
+      </c>
+      <c r="W11" s="22">
+        <f t="shared" ref="W11:AE11" si="4">+V11*1.07</f>
+        <v>261.52443023519999</v>
+      </c>
+      <c r="X11" s="22">
+        <f t="shared" si="4"/>
+        <v>279.83114035166398</v>
+      </c>
+      <c r="Y11" s="22">
+        <f t="shared" si="4"/>
+        <v>299.41932017628045</v>
+      </c>
+      <c r="Z11" s="22">
+        <f t="shared" si="4"/>
+        <v>320.37867258862008</v>
+      </c>
+      <c r="AA11" s="22">
+        <f t="shared" si="4"/>
+        <v>342.80517966982353</v>
+      </c>
+      <c r="AB11" s="22">
+        <f t="shared" si="4"/>
+        <v>366.80154224671122</v>
+      </c>
+      <c r="AC11" s="22">
+        <f t="shared" si="4"/>
+        <v>392.47765020398106</v>
+      </c>
+      <c r="AD11" s="22">
+        <f t="shared" si="4"/>
+        <v>419.95108571825978</v>
+      </c>
+      <c r="AE11" s="22">
+        <f t="shared" si="4"/>
+        <v>449.34766171853801</v>
       </c>
     </row>
     <row r="12" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="20" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="5"/>
@@ -1499,69 +1498,69 @@
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
-      <c r="P12" s="23">
+      <c r="P12" s="20">
         <f>+P7*$P$13</f>
         <v>132.93997000000002</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="20">
         <f>+Q7*$Q$13</f>
         <v>165.41720000000001</v>
       </c>
-      <c r="R12" s="23">
+      <c r="R12" s="20">
         <f>+R7*$R$13</f>
         <v>152.94045</v>
       </c>
-      <c r="S12" s="23">
+      <c r="S12" s="20">
         <f>+S7*$S$13</f>
         <v>231.53759999999997</v>
       </c>
-      <c r="T12" s="23">
+      <c r="T12" s="20">
         <f>+T7*$T$13</f>
         <v>430.05143999999996</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="20">
         <f>+U7*$U$13</f>
-        <v>598.44460199999992</v>
-      </c>
-      <c r="V12" s="25">
+        <v>583.26391619999981</v>
+      </c>
+      <c r="V12" s="22">
         <f>+U12*1.07</f>
-        <v>640.33572413999991</v>
-      </c>
-      <c r="W12" s="25">
-        <f t="shared" ref="W12:AE12" si="4">+V12*1.07</f>
-        <v>685.1592248298</v>
-      </c>
-      <c r="X12" s="25">
-        <f t="shared" si="4"/>
-        <v>733.12037056788608</v>
-      </c>
-      <c r="Y12" s="25">
-        <f t="shared" si="4"/>
-        <v>784.43879650763813</v>
-      </c>
-      <c r="Z12" s="25">
-        <f t="shared" si="4"/>
-        <v>839.34951226317287</v>
-      </c>
-      <c r="AA12" s="25">
-        <f t="shared" si="4"/>
-        <v>898.10397812159499</v>
-      </c>
-      <c r="AB12" s="25">
-        <f t="shared" si="4"/>
-        <v>960.97125659010669</v>
-      </c>
-      <c r="AC12" s="25">
-        <f t="shared" si="4"/>
-        <v>1028.2392445514142</v>
-      </c>
-      <c r="AD12" s="25">
-        <f t="shared" si="4"/>
-        <v>1100.2159916700132</v>
-      </c>
-      <c r="AE12" s="25">
-        <f t="shared" si="4"/>
-        <v>1177.2311110869141</v>
+        <v>624.09239033399979</v>
+      </c>
+      <c r="W12" s="22">
+        <f t="shared" ref="W12:AE12" si="5">+V12*1.07</f>
+        <v>667.77885765737983</v>
+      </c>
+      <c r="X12" s="22">
+        <f t="shared" si="5"/>
+        <v>714.52337769339647</v>
+      </c>
+      <c r="Y12" s="22">
+        <f t="shared" si="5"/>
+        <v>764.5400141319343</v>
+      </c>
+      <c r="Z12" s="22">
+        <f t="shared" si="5"/>
+        <v>818.05781512116971</v>
+      </c>
+      <c r="AA12" s="22">
+        <f t="shared" si="5"/>
+        <v>875.32186217965159</v>
+      </c>
+      <c r="AB12" s="22">
+        <f t="shared" si="5"/>
+        <v>936.59439253222729</v>
+      </c>
+      <c r="AC12" s="22">
+        <f t="shared" si="5"/>
+        <v>1002.1560000094833</v>
+      </c>
+      <c r="AD12" s="22">
+        <f t="shared" si="5"/>
+        <v>1072.3069200101472</v>
+      </c>
+      <c r="AE12" s="22">
+        <f t="shared" si="5"/>
+        <v>1147.3684044108577</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -1601,12 +1600,11 @@
         <v>301.07499999999999</v>
       </c>
       <c r="M13" s="9">
-        <f>+I13*1.35</f>
-        <v>365.77305000000001</v>
+        <v>355.32</v>
       </c>
       <c r="N13" s="9">
-        <f>+J13*1.35</f>
-        <v>433.54304999999999</v>
+        <f>+J13*1.27</f>
+        <v>407.85160999999999</v>
       </c>
       <c r="O13" s="9"/>
       <c r="P13" s="9">
@@ -1626,47 +1624,47 @@
       </c>
       <c r="U13" s="8">
         <f>+SUM(K13:N13)</f>
-        <v>1424.8680999999999</v>
+        <v>1388.7236099999998</v>
       </c>
       <c r="V13" s="8">
         <f>+V9+V10+V11+V12</f>
-        <v>1549.4015719399999</v>
+        <v>1510.0980535139997</v>
       </c>
       <c r="W13" s="8">
         <f>+W9+W10+W11+W12</f>
-        <v>1657.8596819758002</v>
+        <v>1615.8049172599799</v>
       </c>
       <c r="X13" s="8">
-        <f t="shared" ref="X13:AE13" si="5">+X9+X10+X11+X12</f>
-        <v>1773.9098597141062</v>
+        <f t="shared" ref="X13:AE13" si="6">+X9+X10+X11+X12</f>
+        <v>1728.9112614681785</v>
       </c>
       <c r="Y13" s="8">
-        <f t="shared" si="5"/>
-        <v>1898.0835498940937</v>
+        <f t="shared" si="6"/>
+        <v>1849.9350497709511</v>
       </c>
       <c r="Z13" s="8">
-        <f t="shared" si="5"/>
-        <v>2030.9493983866805</v>
+        <f t="shared" si="6"/>
+        <v>1979.4305032549178</v>
       </c>
       <c r="AA13" s="8">
-        <f t="shared" si="5"/>
-        <v>2173.1158562737482</v>
+        <f t="shared" si="6"/>
+        <v>2117.9906384827618</v>
       </c>
       <c r="AB13" s="8">
-        <f t="shared" si="5"/>
-        <v>2325.2339662129107</v>
+        <f t="shared" si="6"/>
+        <v>2266.2499831765558</v>
       </c>
       <c r="AC13" s="8">
-        <f t="shared" si="5"/>
-        <v>2488.0003438478143</v>
+        <f t="shared" si="6"/>
+        <v>2424.8874819989151</v>
       </c>
       <c r="AD13" s="8">
-        <f t="shared" si="5"/>
-        <v>2662.1603679171612</v>
+        <f t="shared" si="6"/>
+        <v>2594.629605738839</v>
       </c>
       <c r="AE13" s="8">
-        <f t="shared" si="5"/>
-        <v>2848.5115936713628</v>
+        <f t="shared" si="6"/>
+        <v>2776.2536781405579</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1706,12 +1704,11 @@
         <v>87.016000000000005</v>
       </c>
       <c r="M14" s="5">
-        <f>+M13*0.3</f>
-        <v>109.731915</v>
+        <v>102.015</v>
       </c>
       <c r="N14" s="5">
         <f>+N13*0.3</f>
-        <v>130.062915</v>
+        <v>122.35548299999999</v>
       </c>
       <c r="O14" s="5"/>
       <c r="P14" s="5">
@@ -1729,49 +1726,49 @@
       <c r="T14" s="1">
         <v>299.83600000000001</v>
       </c>
-      <c r="U14" s="17">
+      <c r="U14" s="1">
         <f>+SUM(K14:N14)</f>
-        <v>420.00482999999997</v>
+        <v>404.58048300000002</v>
       </c>
       <c r="V14" s="1">
-        <f t="shared" ref="V14:AE14" si="6">+V13*0.35</f>
-        <v>542.29055017899998</v>
+        <f t="shared" ref="V14:AE14" si="7">+V13*0.35</f>
+        <v>528.53431872989984</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" si="6"/>
-        <v>580.25088869153001</v>
+        <f t="shared" si="7"/>
+        <v>565.53172104099292</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="6"/>
-        <v>620.8684508999371</v>
+        <f t="shared" si="7"/>
+        <v>605.11894151386241</v>
       </c>
       <c r="Y14" s="1">
-        <f t="shared" si="6"/>
-        <v>664.32924246293271</v>
+        <f t="shared" si="7"/>
+        <v>647.47726741983286</v>
       </c>
       <c r="Z14" s="1">
-        <f t="shared" si="6"/>
-        <v>710.83228943533811</v>
+        <f t="shared" si="7"/>
+        <v>692.8006761392212</v>
       </c>
       <c r="AA14" s="1">
-        <f t="shared" si="6"/>
-        <v>760.59054969581189</v>
+        <f t="shared" si="7"/>
+        <v>741.29672346896655</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="6"/>
-        <v>813.83188817451867</v>
+        <f t="shared" si="7"/>
+        <v>793.18749411179454</v>
       </c>
       <c r="AC14" s="1">
-        <f t="shared" si="6"/>
-        <v>870.80012034673496</v>
+        <f t="shared" si="7"/>
+        <v>848.71061869962023</v>
       </c>
       <c r="AD14" s="1">
-        <f t="shared" si="6"/>
-        <v>931.75612877100639</v>
+        <f t="shared" si="7"/>
+        <v>908.12036200859359</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="6"/>
-        <v>996.97905778497693</v>
+        <f t="shared" si="7"/>
+        <v>971.6887873491952</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1779,117 +1776,117 @@
         <v>11</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" ref="C15:N15" si="7">+C13-C14</f>
+        <f t="shared" ref="C15:N15" si="8">+C13-C14</f>
         <v>82.984999999999999</v>
       </c>
       <c r="D15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>79.56</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>98.725000000000009</v>
       </c>
       <c r="F15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>129.126</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>152.572</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>152.36500000000001</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>191.95699999999999</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>227.20199999999994</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>231.28299999999996</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>214.05899999999997</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="7"/>
-        <v>256.041135</v>
+        <f t="shared" si="8"/>
+        <v>253.30500000000001</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="7"/>
-        <v>303.48013500000002</v>
+        <f t="shared" si="8"/>
+        <v>285.496127</v>
       </c>
       <c r="O15" s="5"/>
       <c r="P15" s="1">
-        <f>+P13-P14</f>
+        <f t="shared" ref="P15:W15" si="9">+P13-P14</f>
         <v>181.12299999999999</v>
       </c>
       <c r="Q15" s="1">
-        <f>+Q13-Q14</f>
+        <f t="shared" si="9"/>
         <v>206.19800000000001</v>
       </c>
       <c r="R15" s="1">
-        <f>+R13-R14</f>
+        <f t="shared" si="9"/>
         <v>251.73199999999997</v>
       </c>
       <c r="S15" s="1">
-        <f>+S13-S14</f>
+        <f t="shared" si="9"/>
         <v>390.39600000000007</v>
       </c>
       <c r="T15" s="1">
-        <f>+T13-T14</f>
+        <f t="shared" si="9"/>
         <v>724.096</v>
       </c>
       <c r="U15" s="1">
-        <f>+U13-U14</f>
-        <v>1004.8632699999999</v>
+        <f t="shared" si="9"/>
+        <v>984.14312699999982</v>
       </c>
       <c r="V15" s="1">
-        <f>+V13-V14</f>
-        <v>1007.111021761</v>
+        <f t="shared" si="9"/>
+        <v>981.56373478409989</v>
       </c>
       <c r="W15" s="1">
-        <f>+W13-W14</f>
-        <v>1077.6087932842702</v>
+        <f t="shared" si="9"/>
+        <v>1050.2731962189869</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" ref="X15:AE15" si="8">+X13-X14</f>
-        <v>1153.0414088141692</v>
+        <f t="shared" ref="X15:AE15" si="10">+X13-X14</f>
+        <v>1123.7923199543161</v>
       </c>
       <c r="Y15" s="1">
-        <f t="shared" si="8"/>
-        <v>1233.7543074311611</v>
+        <f t="shared" si="10"/>
+        <v>1202.4577823511181</v>
       </c>
       <c r="Z15" s="1">
-        <f t="shared" si="8"/>
-        <v>1320.1171089513423</v>
+        <f t="shared" si="10"/>
+        <v>1286.6298271156966</v>
       </c>
       <c r="AA15" s="1">
-        <f t="shared" si="8"/>
-        <v>1412.5253065779364</v>
+        <f t="shared" si="10"/>
+        <v>1376.6939150137953</v>
       </c>
       <c r="AB15" s="1">
-        <f t="shared" si="8"/>
-        <v>1511.4020780383921</v>
+        <f t="shared" si="10"/>
+        <v>1473.0624890647614</v>
       </c>
       <c r="AC15" s="1">
-        <f t="shared" si="8"/>
-        <v>1617.2002235010793</v>
+        <f t="shared" si="10"/>
+        <v>1576.1768632992948</v>
       </c>
       <c r="AD15" s="1">
-        <f t="shared" si="8"/>
-        <v>1730.4042391461549</v>
+        <f t="shared" si="10"/>
+        <v>1686.5092437302455</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="8"/>
-        <v>1851.5325358863859</v>
+        <f t="shared" si="10"/>
+        <v>1804.5648907913628</v>
       </c>
     </row>
     <row r="16" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1929,12 +1926,11 @@
         <v>186.14099999999999</v>
       </c>
       <c r="M16" s="5">
-        <f>+L16+5</f>
-        <v>191.14099999999999</v>
+        <v>218.22</v>
       </c>
       <c r="N16" s="5">
         <f>+M16+5</f>
-        <v>196.14099999999999</v>
+        <v>223.22</v>
       </c>
       <c r="O16" s="5"/>
       <c r="P16" s="5">
@@ -1954,49 +1950,49 @@
       <c r="T16" s="1">
         <v>574.41800000000001</v>
       </c>
-      <c r="U16" s="17">
+      <c r="U16" s="1">
         <f>+SUM(K16:N16)</f>
-        <v>753.99799999999993</v>
+        <v>808.15600000000006</v>
       </c>
       <c r="V16" s="1">
-        <f>+U16+15</f>
-        <v>768.99799999999993</v>
+        <f t="shared" ref="V16:AE16" si="11">+U16+15</f>
+        <v>823.15600000000006</v>
       </c>
       <c r="W16" s="1">
-        <f>+V16+15</f>
-        <v>783.99799999999993</v>
+        <f t="shared" si="11"/>
+        <v>838.15600000000006</v>
       </c>
       <c r="X16" s="1">
-        <f>+W16+15</f>
-        <v>798.99799999999993</v>
+        <f t="shared" si="11"/>
+        <v>853.15600000000006</v>
       </c>
       <c r="Y16" s="1">
-        <f>+X16+15</f>
-        <v>813.99799999999993</v>
+        <f t="shared" si="11"/>
+        <v>868.15600000000006</v>
       </c>
       <c r="Z16" s="1">
-        <f>+Y16+15</f>
-        <v>828.99799999999993</v>
+        <f t="shared" si="11"/>
+        <v>883.15600000000006</v>
       </c>
       <c r="AA16" s="1">
-        <f>+Z16+15</f>
-        <v>843.99799999999993</v>
+        <f t="shared" si="11"/>
+        <v>898.15600000000006</v>
       </c>
       <c r="AB16" s="1">
-        <f>+AA16+15</f>
-        <v>858.99799999999993</v>
+        <f t="shared" si="11"/>
+        <v>913.15600000000006</v>
       </c>
       <c r="AC16" s="1">
-        <f>+AB16+15</f>
-        <v>873.99799999999993</v>
+        <f t="shared" si="11"/>
+        <v>928.15600000000006</v>
       </c>
       <c r="AD16" s="1">
-        <f>+AC16+15</f>
-        <v>888.99799999999993</v>
+        <f t="shared" si="11"/>
+        <v>943.15600000000006</v>
       </c>
       <c r="AE16" s="1">
-        <f>+AD16+15</f>
-        <v>903.99799999999993</v>
+        <f t="shared" si="11"/>
+        <v>958.15600000000006</v>
       </c>
     </row>
     <row r="17" spans="2:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2004,117 +2000,117 @@
         <v>13</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" ref="C17:N17" si="9">+C15-C16</f>
+        <f t="shared" ref="C17:N17" si="12">+C15-C16</f>
         <v>21.43</v>
       </c>
       <c r="D17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>15.376999999999995</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>23.291000000000011</v>
       </c>
       <c r="F17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>8.0450000000000443</v>
       </c>
       <c r="G17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>60.63300000000001</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>40.179000000000002</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>31.835999999999984</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>17.029999999999944</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>50.70799999999997</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>27.917999999999978</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="9"/>
-        <v>64.900135000000006</v>
+        <f t="shared" si="12"/>
+        <v>35.085000000000008</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="9"/>
-        <v>107.33913500000003</v>
+        <f t="shared" si="12"/>
+        <v>62.276127000000002</v>
       </c>
       <c r="O17" s="5"/>
       <c r="P17" s="1">
-        <f t="shared" ref="P17:W17" si="10">+P15-P16</f>
+        <f t="shared" ref="P17:W17" si="13">+P15-P16</f>
         <v>29.949999999999989</v>
       </c>
       <c r="Q17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.4000000000000057</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>29.819999999999965</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>68.143000000000086</v>
       </c>
       <c r="T17" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>149.678</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="10"/>
-        <v>250.86527000000001</v>
+        <f t="shared" si="13"/>
+        <v>175.98712699999976</v>
       </c>
       <c r="V17" s="1">
-        <f t="shared" si="10"/>
-        <v>238.11302176100003</v>
+        <f t="shared" si="13"/>
+        <v>158.40773478409983</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" si="10"/>
-        <v>293.61079328427024</v>
+        <f t="shared" si="13"/>
+        <v>212.11719621898681</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" ref="X17" si="11">+X15-X16</f>
-        <v>354.04340881416931</v>
+        <f t="shared" ref="X17" si="14">+X15-X16</f>
+        <v>270.63631995431604</v>
       </c>
       <c r="Y17" s="1">
-        <f t="shared" ref="Y17" si="12">+Y15-Y16</f>
-        <v>419.75630743116119</v>
+        <f t="shared" ref="Y17" si="15">+Y15-Y16</f>
+        <v>334.30178235111805</v>
       </c>
       <c r="Z17" s="1">
-        <f t="shared" ref="Z17" si="13">+Z15-Z16</f>
-        <v>491.11910895134235</v>
+        <f t="shared" ref="Z17" si="16">+Z15-Z16</f>
+        <v>403.47382711569651</v>
       </c>
       <c r="AA17" s="1">
-        <f t="shared" ref="AA17" si="14">+AA15-AA16</f>
-        <v>568.52730657793643</v>
+        <f t="shared" ref="AA17" si="17">+AA15-AA16</f>
+        <v>478.53791501379521</v>
       </c>
       <c r="AB17" s="1">
-        <f t="shared" ref="AB17" si="15">+AB15-AB16</f>
-        <v>652.40407803839219</v>
+        <f t="shared" ref="AB17" si="18">+AB15-AB16</f>
+        <v>559.90648906476133</v>
       </c>
       <c r="AC17" s="1">
-        <f t="shared" ref="AC17" si="16">+AC15-AC16</f>
-        <v>743.2022235010794</v>
+        <f t="shared" ref="AC17" si="19">+AC15-AC16</f>
+        <v>648.02086329929477</v>
       </c>
       <c r="AD17" s="1">
-        <f t="shared" ref="AD17" si="17">+AD15-AD16</f>
-        <v>841.40623914615492</v>
+        <f t="shared" ref="AD17" si="20">+AD15-AD16</f>
+        <v>743.35324373024548</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" ref="AE17" si="18">+AE15-AE16</f>
-        <v>947.53453588638592</v>
+        <f t="shared" ref="AE17" si="21">+AE15-AE16</f>
+        <v>846.40889079136275</v>
       </c>
     </row>
     <row r="18" spans="2:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2162,7 +2158,8 @@
         <v>2.9999999999999805E-2</v>
       </c>
       <c r="M18" s="5">
-        <v>-3</v>
+        <f>-5.278-3.527</f>
+        <v>-8.8049999999999997</v>
       </c>
       <c r="N18" s="5">
         <v>-5</v>
@@ -2188,9 +2185,9 @@
         <f>1.21-2.875-7.023</f>
         <v>-8.6879999999999988</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="1">
         <f>+SUM(K18:N18)</f>
-        <v>-11.448</v>
+        <v>-17.253</v>
       </c>
       <c r="V18" s="1">
         <v>-20</v>
@@ -2228,52 +2225,52 @@
         <v>15</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" ref="C19:N19" si="19">+C17+C18</f>
+        <f t="shared" ref="C19:N19" si="22">+C17+C18</f>
         <v>19.103999999999999</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>13.328999999999995</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>23.55800000000001</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>8.0830000000000446</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>61.373000000000012</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>39.74</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>30.415999999999983</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>9.4609999999999452</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>47.229999999999968</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>27.947999999999979</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="19"/>
-        <v>61.900135000000006</v>
+        <f t="shared" si="22"/>
+        <v>26.280000000000008</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="19"/>
-        <v>102.33913500000003</v>
+        <f t="shared" si="22"/>
+        <v>57.276127000000002</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="1">
@@ -2285,60 +2282,60 @@
         <v>3.6900000000000057</v>
       </c>
       <c r="R19" s="1">
-        <f t="shared" ref="R19:W19" si="20">+R17+R18</f>
+        <f t="shared" ref="R19:W19" si="23">+R17+R18</f>
         <v>25.480999999999966</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>64.074000000000083</v>
       </c>
       <c r="T19" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>140.99</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="20"/>
-        <v>239.41727</v>
+        <f t="shared" si="23"/>
+        <v>158.73412699999977</v>
       </c>
       <c r="V19" s="1">
-        <f t="shared" si="20"/>
-        <v>218.11302176100003</v>
+        <f t="shared" si="23"/>
+        <v>138.40773478409983</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="20"/>
-        <v>268.61079328427024</v>
+        <f t="shared" si="23"/>
+        <v>187.11719621898681</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" ref="X19" si="21">+X17+X18</f>
-        <v>319.04340881416931</v>
+        <f t="shared" ref="X19" si="24">+X17+X18</f>
+        <v>235.63631995431604</v>
       </c>
       <c r="Y19" s="1">
-        <f t="shared" ref="Y19" si="22">+Y17+Y18</f>
-        <v>384.75630743116119</v>
+        <f t="shared" ref="Y19" si="25">+Y17+Y18</f>
+        <v>299.30178235111805</v>
       </c>
       <c r="Z19" s="1">
-        <f t="shared" ref="Z19" si="23">+Z17+Z18</f>
-        <v>456.11910895134235</v>
+        <f t="shared" ref="Z19" si="26">+Z17+Z18</f>
+        <v>368.47382711569651</v>
       </c>
       <c r="AA19" s="1">
-        <f t="shared" ref="AA19" si="24">+AA17+AA18</f>
-        <v>533.52730657793643</v>
+        <f t="shared" ref="AA19" si="27">+AA17+AA18</f>
+        <v>443.53791501379521</v>
       </c>
       <c r="AB19" s="1">
-        <f t="shared" ref="AB19" si="25">+AB17+AB18</f>
-        <v>617.40407803839219</v>
+        <f t="shared" ref="AB19" si="28">+AB17+AB18</f>
+        <v>524.90648906476133</v>
       </c>
       <c r="AC19" s="1">
-        <f t="shared" ref="AC19" si="26">+AC17+AC18</f>
-        <v>708.2022235010794</v>
+        <f t="shared" ref="AC19" si="29">+AC17+AC18</f>
+        <v>613.02086329929477</v>
       </c>
       <c r="AD19" s="1">
-        <f t="shared" ref="AD19" si="27">+AD17+AD18</f>
-        <v>806.40623914615492</v>
+        <f t="shared" ref="AD19" si="30">+AD17+AD18</f>
+        <v>708.35324373024548</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" ref="AE19" si="28">+AE17+AE18</f>
-        <v>912.53453588638592</v>
+        <f t="shared" ref="AE19" si="31">+AE17+AE18</f>
+        <v>811.40889079136275</v>
       </c>
     </row>
     <row r="20" spans="2:70" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2378,12 +2375,11 @@
         <v>8.9280000000000008</v>
       </c>
       <c r="M20" s="5">
-        <f>+M19*0.15</f>
-        <v>9.2850202500000005</v>
+        <v>9.0190000000000001</v>
       </c>
       <c r="N20" s="5">
         <f>+N19*0.15</f>
-        <v>15.350870250000003</v>
+        <v>8.5914190500000007</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="5">
@@ -2401,49 +2397,49 @@
       <c r="T20" s="1">
         <v>13.327</v>
       </c>
-      <c r="U20" s="17">
+      <c r="U20" s="1">
         <f>+SUM(K20:N20)</f>
-        <v>33.238890500000011</v>
+        <v>26.213419049999999</v>
       </c>
       <c r="V20" s="1">
         <f>+V19*0.15</f>
-        <v>32.71695326415</v>
+        <v>20.761160217614975</v>
       </c>
       <c r="W20" s="1">
-        <f>+W19*0.2</f>
-        <v>53.722158656854049</v>
+        <f t="shared" ref="W20:AE20" si="32">+W19*0.2</f>
+        <v>37.423439243797361</v>
       </c>
       <c r="X20" s="1">
-        <f>+X19*0.2</f>
-        <v>63.808681762833864</v>
+        <f t="shared" si="32"/>
+        <v>47.127263990863213</v>
       </c>
       <c r="Y20" s="1">
-        <f>+Y19*0.2</f>
-        <v>76.951261486232241</v>
+        <f t="shared" si="32"/>
+        <v>59.860356470223614</v>
       </c>
       <c r="Z20" s="1">
-        <f>+Z19*0.2</f>
-        <v>91.223821790268474</v>
+        <f t="shared" si="32"/>
+        <v>73.694765423139302</v>
       </c>
       <c r="AA20" s="1">
-        <f>+AA19*0.2</f>
-        <v>106.70546131558729</v>
+        <f t="shared" si="32"/>
+        <v>88.707583002759051</v>
       </c>
       <c r="AB20" s="1">
-        <f>+AB19*0.2</f>
-        <v>123.48081560767844</v>
+        <f t="shared" si="32"/>
+        <v>104.98129781295228</v>
       </c>
       <c r="AC20" s="1">
-        <f>+AC19*0.2</f>
-        <v>141.64044470021588</v>
+        <f t="shared" si="32"/>
+        <v>122.60417265985896</v>
       </c>
       <c r="AD20" s="1">
-        <f>+AD19*0.2</f>
-        <v>161.28124782923101</v>
+        <f t="shared" si="32"/>
+        <v>141.6706487460491</v>
       </c>
       <c r="AE20" s="1">
-        <f>+AE19*0.2</f>
-        <v>182.50690717727718</v>
+        <f t="shared" si="32"/>
+        <v>162.28177815827257</v>
       </c>
     </row>
     <row r="21" spans="2:70" s="8" customFormat="1" x14ac:dyDescent="0.2">
@@ -2451,52 +2447,52 @@
         <v>17</v>
       </c>
       <c r="C21" s="9">
-        <f t="shared" ref="C21:N21" si="29">+C19-C20</f>
+        <f t="shared" ref="C21:N21" si="33">+C19-C20</f>
         <v>14.468999999999999</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>11.709999999999996</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>19.281000000000009</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>16.070000000000043</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>54.69700000000001</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>33.271000000000001</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>26.887999999999984</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>12.806999999999945</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>47.554999999999971</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>19.019999999999978</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="29"/>
-        <v>52.615114750000004</v>
+        <f t="shared" si="33"/>
+        <v>17.26100000000001</v>
       </c>
       <c r="N21" s="9">
-        <f t="shared" si="29"/>
-        <v>86.988264750000027</v>
+        <f t="shared" si="33"/>
+        <v>48.684707950000004</v>
       </c>
       <c r="O21" s="9"/>
       <c r="P21" s="8">
@@ -2504,220 +2500,220 @@
         <v>17.88399999999999</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" ref="P21:AE21" si="30">+Q19-Q20</f>
+        <f t="shared" ref="Q21:AE21" si="34">+Q19-Q20</f>
         <v>1.1480000000000059</v>
       </c>
       <c r="R21" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>21.819999999999965</v>
       </c>
       <c r="S21" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>61.530000000000086</v>
       </c>
       <c r="T21" s="8">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>127.66300000000001</v>
       </c>
       <c r="U21" s="8">
-        <f t="shared" si="30"/>
-        <v>206.17837950000001</v>
+        <f t="shared" si="34"/>
+        <v>132.52070794999977</v>
       </c>
       <c r="V21" s="8">
-        <f t="shared" si="30"/>
-        <v>185.39606849685003</v>
+        <f t="shared" si="34"/>
+        <v>117.64657456648486</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" si="30"/>
-        <v>214.8886346274162</v>
+        <f t="shared" si="34"/>
+        <v>149.69375697518944</v>
       </c>
       <c r="X21" s="8">
-        <f t="shared" si="30"/>
-        <v>255.23472705133545</v>
+        <f t="shared" si="34"/>
+        <v>188.50905596345282</v>
       </c>
       <c r="Y21" s="8">
-        <f t="shared" si="30"/>
-        <v>307.80504594492896</v>
+        <f t="shared" si="34"/>
+        <v>239.44142588089443</v>
       </c>
       <c r="Z21" s="8">
-        <f t="shared" si="30"/>
-        <v>364.8952871610739</v>
+        <f t="shared" si="34"/>
+        <v>294.77906169255721</v>
       </c>
       <c r="AA21" s="8">
-        <f t="shared" si="30"/>
-        <v>426.82184526234914</v>
+        <f t="shared" si="34"/>
+        <v>354.83033201103615</v>
       </c>
       <c r="AB21" s="8">
-        <f t="shared" si="30"/>
-        <v>493.92326243071375</v>
+        <f t="shared" si="34"/>
+        <v>419.92519125180905</v>
       </c>
       <c r="AC21" s="8">
-        <f t="shared" si="30"/>
-        <v>566.56177880086352</v>
+        <f t="shared" si="34"/>
+        <v>490.41669063943584</v>
       </c>
       <c r="AD21" s="8">
-        <f t="shared" si="30"/>
-        <v>645.12499131692391</v>
+        <f t="shared" si="34"/>
+        <v>566.68259498419638</v>
       </c>
       <c r="AE21" s="8">
-        <f t="shared" si="30"/>
-        <v>730.02762870910874</v>
+        <f t="shared" si="34"/>
+        <v>649.12711263309018</v>
       </c>
       <c r="AF21" s="8">
-        <f>+AE21*(1+$AE$25)</f>
-        <v>737.32790499619978</v>
+        <f t="shared" ref="AF21:BR21" si="35">+AE21*(1+$AE$25)</f>
+        <v>655.61838375942114</v>
       </c>
       <c r="AG21" s="8">
-        <f>+AF21*(1+$AE$25)</f>
-        <v>744.70118404616176</v>
+        <f t="shared" si="35"/>
+        <v>662.17456759701531</v>
       </c>
       <c r="AH21" s="8">
-        <f>+AG21*(1+$AE$25)</f>
-        <v>752.1481958866234</v>
+        <f t="shared" si="35"/>
+        <v>668.79631327298546</v>
       </c>
       <c r="AI21" s="8">
-        <f>+AH21*(1+$AE$25)</f>
-        <v>759.66967784548967</v>
+        <f t="shared" si="35"/>
+        <v>675.48427640571526</v>
       </c>
       <c r="AJ21" s="8">
-        <f>+AI21*(1+$AE$25)</f>
-        <v>767.26637462394456</v>
+        <f t="shared" si="35"/>
+        <v>682.23911916977238</v>
       </c>
       <c r="AK21" s="8">
-        <f>+AJ21*(1+$AE$25)</f>
-        <v>774.93903837018399</v>
+        <f t="shared" si="35"/>
+        <v>689.06151036147014</v>
       </c>
       <c r="AL21" s="8">
-        <f>+AK21*(1+$AE$25)</f>
-        <v>782.68842875388589</v>
+        <f t="shared" si="35"/>
+        <v>695.95212546508481</v>
       </c>
       <c r="AM21" s="8">
-        <f>+AL21*(1+$AE$25)</f>
-        <v>790.51531304142475</v>
+        <f t="shared" si="35"/>
+        <v>702.9116467197357</v>
       </c>
       <c r="AN21" s="8">
-        <f>+AM21*(1+$AE$25)</f>
-        <v>798.42046617183905</v>
+        <f t="shared" si="35"/>
+        <v>709.94076318693305</v>
       </c>
       <c r="AO21" s="8">
-        <f>+AN21*(1+$AE$25)</f>
-        <v>806.40467083355747</v>
+        <f t="shared" si="35"/>
+        <v>717.04017081880238</v>
       </c>
       <c r="AP21" s="8">
-        <f>+AO21*(1+$AE$25)</f>
-        <v>814.46871754189306</v>
+        <f t="shared" si="35"/>
+        <v>724.2105725269904</v>
       </c>
       <c r="AQ21" s="8">
-        <f>+AP21*(1+$AE$25)</f>
-        <v>822.61340471731205</v>
+        <f t="shared" si="35"/>
+        <v>731.45267825226028</v>
       </c>
       <c r="AR21" s="8">
-        <f>+AQ21*(1+$AE$25)</f>
-        <v>830.83953876448516</v>
+        <f t="shared" si="35"/>
+        <v>738.76720503478293</v>
       </c>
       <c r="AS21" s="8">
-        <f>+AR21*(1+$AE$25)</f>
-        <v>839.14793415213001</v>
+        <f t="shared" si="35"/>
+        <v>746.15487708513081</v>
       </c>
       <c r="AT21" s="8">
-        <f>+AS21*(1+$AE$25)</f>
-        <v>847.5394134936513</v>
+        <f t="shared" si="35"/>
+        <v>753.61642585598213</v>
       </c>
       <c r="AU21" s="8">
-        <f>+AT21*(1+$AE$25)</f>
-        <v>856.01480762858785</v>
+        <f t="shared" si="35"/>
+        <v>761.15259011454191</v>
       </c>
       <c r="AV21" s="8">
-        <f>+AU21*(1+$AE$25)</f>
-        <v>864.57495570487379</v>
+        <f t="shared" si="35"/>
+        <v>768.76411601568736</v>
       </c>
       <c r="AW21" s="8">
-        <f>+AV21*(1+$AE$25)</f>
-        <v>873.22070526192249</v>
+        <f t="shared" si="35"/>
+        <v>776.45175717584425</v>
       </c>
       <c r="AX21" s="8">
-        <f>+AW21*(1+$AE$25)</f>
-        <v>881.95291231454178</v>
+        <f t="shared" si="35"/>
+        <v>784.21627474760271</v>
       </c>
       <c r="AY21" s="8">
-        <f>+AX21*(1+$AE$25)</f>
-        <v>890.77244143768723</v>
+        <f t="shared" si="35"/>
+        <v>792.05843749507869</v>
       </c>
       <c r="AZ21" s="8">
-        <f>+AY21*(1+$AE$25)</f>
-        <v>899.68016585206408</v>
+        <f t="shared" si="35"/>
+        <v>799.97902187002944</v>
       </c>
       <c r="BA21" s="8">
-        <f>+AZ21*(1+$AE$25)</f>
-        <v>908.67696751058475</v>
+        <f t="shared" si="35"/>
+        <v>807.9788120887298</v>
       </c>
       <c r="BB21" s="8">
-        <f>+BA21*(1+$AE$25)</f>
-        <v>917.76373718569062</v>
+        <f t="shared" si="35"/>
+        <v>816.05860020961711</v>
       </c>
       <c r="BC21" s="8">
-        <f>+BB21*(1+$AE$25)</f>
-        <v>926.94137455754753</v>
+        <f t="shared" si="35"/>
+        <v>824.21918621171324</v>
       </c>
       <c r="BD21" s="8">
-        <f>+BC21*(1+$AE$25)</f>
-        <v>936.21078830312297</v>
+        <f t="shared" si="35"/>
+        <v>832.46137807383036</v>
       </c>
       <c r="BE21" s="8">
-        <f>+BD21*(1+$AE$25)</f>
-        <v>945.57289618615425</v>
+        <f t="shared" si="35"/>
+        <v>840.78599185456869</v>
       </c>
       <c r="BF21" s="8">
-        <f>+BE21*(1+$AE$25)</f>
-        <v>955.02862514801575</v>
+        <f t="shared" si="35"/>
+        <v>849.19385177311437</v>
       </c>
       <c r="BG21" s="8">
-        <f>+BF21*(1+$AE$25)</f>
-        <v>964.57891139949595</v>
+        <f t="shared" si="35"/>
+        <v>857.68579029084549</v>
       </c>
       <c r="BH21" s="8">
-        <f>+BG21*(1+$AE$25)</f>
-        <v>974.22470051349092</v>
+        <f t="shared" si="35"/>
+        <v>866.26264819375399</v>
       </c>
       <c r="BI21" s="8">
-        <f>+BH21*(1+$AE$25)</f>
-        <v>983.96694751862583</v>
+        <f t="shared" si="35"/>
+        <v>874.92527467569153</v>
       </c>
       <c r="BJ21" s="8">
-        <f>+BI21*(1+$AE$25)</f>
-        <v>993.8066169938121</v>
+        <f t="shared" si="35"/>
+        <v>883.67452742244848</v>
       </c>
       <c r="BK21" s="8">
-        <f>+BJ21*(1+$AE$25)</f>
-        <v>1003.7446831637502</v>
+        <f t="shared" si="35"/>
+        <v>892.51127269667302</v>
       </c>
       <c r="BL21" s="8">
-        <f>+BK21*(1+$AE$25)</f>
-        <v>1013.7821299953878</v>
+        <f t="shared" si="35"/>
+        <v>901.43638542363976</v>
       </c>
       <c r="BM21" s="8">
-        <f>+BL21*(1+$AE$25)</f>
-        <v>1023.9199512953417</v>
+        <f t="shared" si="35"/>
+        <v>910.45074927787618</v>
       </c>
       <c r="BN21" s="8">
-        <f>+BM21*(1+$AE$25)</f>
-        <v>1034.1591508082952</v>
+        <f t="shared" si="35"/>
+        <v>919.55525677065498</v>
       </c>
       <c r="BO21" s="8">
-        <f>+BN21*(1+$AE$25)</f>
-        <v>1044.5007423163781</v>
+        <f t="shared" si="35"/>
+        <v>928.75080933836159</v>
       </c>
       <c r="BP21" s="8">
-        <f>+BO21*(1+$AE$25)</f>
-        <v>1054.945749739542</v>
+        <f t="shared" si="35"/>
+        <v>938.03831743174521</v>
       </c>
       <c r="BQ21" s="8">
-        <f>+BP21*(1+$AE$25)</f>
-        <v>1065.4952072369374</v>
+        <f t="shared" si="35"/>
+        <v>947.41870060606266</v>
       </c>
       <c r="BR21" s="8">
-        <f>+BQ21*(1+$AE$25)</f>
-        <v>1076.1501593093069</v>
+        <f t="shared" si="35"/>
+        <v>956.89288761212333</v>
       </c>
     </row>
     <row r="22" spans="2:70" x14ac:dyDescent="0.2">
@@ -2725,108 +2721,112 @@
         <v>9</v>
       </c>
       <c r="C22" s="4">
-        <f t="shared" ref="C22:L22" si="31">+C21/C23</f>
+        <f t="shared" ref="C22:M22" si="36">+C21/C23</f>
         <v>0.26876701085834326</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.21276397040752959</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.34528926746723437</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.29039953591009904</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.95664482236999637</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.57924913740260997</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.46334562666298323</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.22161866451730902</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.81219204527275057</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0.32522532797401171</v>
       </c>
+      <c r="M22" s="4">
+        <f t="shared" si="36"/>
+        <v>0.29580201907970166</v>
+      </c>
       <c r="P22" s="2">
-        <f t="shared" ref="P22:AE22" si="32">+P21/P23</f>
+        <f t="shared" ref="P22:AE22" si="37">+P21/P23</f>
         <v>0.35192848208723559</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2.2079409133470812E-2</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>0.40667754084886659</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1.1119031390509253</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>2.2091437158017762</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="32"/>
-        <v>3.5678126897113391</v>
+        <f t="shared" si="37"/>
+        <v>2.2932038976159452</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="32"/>
-        <v>3.2081852976521925</v>
+        <f t="shared" si="37"/>
+        <v>2.0358145342750449</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="32"/>
-        <v>3.7185392540076636</v>
+        <f t="shared" si="37"/>
+        <v>2.5903748346545044</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="32"/>
-        <v>4.341579165380594</v>
+        <f t="shared" si="37"/>
+        <v>3.2065659689477939</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="32"/>
-        <v>5.1482355764698138</v>
+        <f t="shared" si="37"/>
+        <v>4.0048104585693824</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="32"/>
-        <v>6.0027071450291185</v>
+        <f t="shared" si="37"/>
+        <v>4.8492607114594035</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="32"/>
-        <v>6.9077929229682482</v>
+        <f t="shared" si="37"/>
+        <v>5.7426640260498525</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="32"/>
-        <v>7.866466379801512</v>
+        <f t="shared" si="37"/>
+        <v>6.6879364676156712</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="32"/>
-        <v>8.8818860353766134</v>
+        <f t="shared" si="37"/>
+        <v>7.688173327408685</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" si="32"/>
-        <v>9.9574067829574062</v>
+        <f t="shared" si="37"/>
+        <v>8.7466602457313822</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="32"/>
-        <v>11.096591944676321</v>
+        <f t="shared" si="37"/>
+        <v>9.8668850408475954</v>
       </c>
     </row>
     <row r="23" spans="2:70" x14ac:dyDescent="0.2">
@@ -2865,6 +2865,9 @@
       <c r="L23" s="5">
         <v>58.482529999999997</v>
       </c>
+      <c r="M23" s="5">
+        <v>58.353219000000003</v>
+      </c>
       <c r="P23" s="5">
         <v>50.817143000000002</v>
       </c>
@@ -2893,35 +2896,35 @@
         <v>57.788454000000002</v>
       </c>
       <c r="X23" s="1">
-        <f>+W23+1</f>
+        <f t="shared" ref="X23:AE23" si="38">+W23+1</f>
         <v>58.788454000000002</v>
       </c>
       <c r="Y23" s="1">
-        <f>+X23+1</f>
+        <f t="shared" si="38"/>
         <v>59.788454000000002</v>
       </c>
       <c r="Z23" s="1">
-        <f>+Y23+1</f>
+        <f t="shared" si="38"/>
         <v>60.788454000000002</v>
       </c>
       <c r="AA23" s="1">
-        <f>+Z23+1</f>
+        <f t="shared" si="38"/>
         <v>61.788454000000002</v>
       </c>
       <c r="AB23" s="1">
-        <f>+AA23+1</f>
+        <f t="shared" si="38"/>
         <v>62.788454000000002</v>
       </c>
       <c r="AC23" s="1">
-        <f>+AB23+1</f>
+        <f t="shared" si="38"/>
         <v>63.788454000000002</v>
       </c>
       <c r="AD23" s="1">
-        <f>+AC23+1</f>
+        <f t="shared" si="38"/>
         <v>64.788454000000002</v>
       </c>
       <c r="AE23" s="1">
-        <f>+AD23+1</f>
+        <f t="shared" si="38"/>
         <v>65.788454000000002</v>
       </c>
     </row>
@@ -2981,7 +2984,7 @@
       <c r="AD25" t="s">
         <v>62</v>
       </c>
-      <c r="AE25" s="21">
+      <c r="AE25" s="18">
         <v>0.01</v>
       </c>
     </row>
@@ -3013,7 +3016,7 @@
       <c r="AD26" t="s">
         <v>63</v>
       </c>
-      <c r="AE26" s="21">
+      <c r="AE26" s="18">
         <v>0.09</v>
       </c>
     </row>
@@ -3021,9 +3024,9 @@
       <c r="AD27" t="s">
         <v>64</v>
       </c>
-      <c r="AE27" s="27">
-        <f>+NPV(AE26,T21:BR21)</f>
-        <v>5434.7730050465643</v>
+      <c r="AE27" s="24">
+        <f>+NPV(AE26,U21:BR21)</f>
+        <v>4936.1576918354176</v>
       </c>
     </row>
     <row r="28" spans="2:70" x14ac:dyDescent="0.2">
@@ -3032,7 +3035,7 @@
       </c>
       <c r="AE28" s="2">
         <f>+AE27/Main!K3</f>
-        <v>96.479191543506872</v>
+        <v>84.591009312364022</v>
       </c>
     </row>
     <row r="29" spans="2:70" x14ac:dyDescent="0.2">
@@ -3041,16 +3044,16 @@
       </c>
       <c r="AE29" s="2">
         <f>+Main!K2</f>
-        <v>111</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="2:70" x14ac:dyDescent="0.2">
       <c r="AD30" t="s">
         <v>67</v>
       </c>
-      <c r="AE30" s="28">
+      <c r="AE30" s="25">
         <f>+AE28/AE29-1</f>
-        <v>-0.13081809420264079</v>
+        <v>0.19142266637132432</v>
       </c>
     </row>
     <row r="32" spans="2:70" x14ac:dyDescent="0.2">
@@ -3059,36 +3062,36 @@
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7">
-        <f>+G13/C13-1</f>
+        <f t="shared" ref="G32:L32" si="39">+G13/C13-1</f>
         <v>0.76457777669023907</v>
       </c>
       <c r="H32" s="7">
-        <f>+H13/D13-1</f>
+        <f t="shared" si="39"/>
         <v>0.7614120262527686</v>
       </c>
       <c r="I32" s="7">
-        <f>+I13/E13-1</f>
+        <f t="shared" si="39"/>
         <v>0.84897329684653</v>
       </c>
       <c r="J32" s="7">
-        <f>+J13/F13-1</f>
+        <f t="shared" si="39"/>
         <v>0.71406993066712166</v>
       </c>
       <c r="K32" s="7">
-        <f>+K13/G13-1</f>
+        <f t="shared" si="39"/>
         <v>0.49985439518533403</v>
       </c>
       <c r="L32" s="7">
-        <f>+L13/H13-1</f>
+        <f t="shared" si="39"/>
         <v>0.39705438802451876</v>
       </c>
       <c r="M32" s="7">
-        <f t="shared" ref="M32:N32" si="33">+M13/I13-1</f>
-        <v>0.35000000000000009</v>
+        <f t="shared" ref="M32:N32" si="40">+M13/I13-1</f>
+        <v>0.31141974511244075</v>
       </c>
       <c r="N32" s="7">
-        <f t="shared" si="33"/>
-        <v>0.35000000000000009</v>
+        <f t="shared" si="40"/>
+        <v>0.27</v>
       </c>
       <c r="R32" s="11">
         <f>+R13/Q13-1</f>
@@ -3103,47 +3106,47 @@
         <v>0.76892565181637873</v>
       </c>
       <c r="U32" s="11">
-        <f t="shared" ref="U32:W32" si="34">+U13/T13-1</f>
-        <v>0.39156516253032425</v>
+        <f t="shared" ref="U32:W32" si="41">+U13/T13-1</f>
+        <v>0.35626546489415278</v>
       </c>
       <c r="V32" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>8.7399999999999922E-2</v>
       </c>
       <c r="W32" s="11">
-        <f t="shared" si="34"/>
+        <f t="shared" si="41"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="X32" s="11">
-        <f t="shared" ref="X32" si="35">+X13/W13-1</f>
+        <f t="shared" ref="X32" si="42">+X13/W13-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="Y32" s="11">
-        <f t="shared" ref="Y32" si="36">+Y13/X13-1</f>
+        <f t="shared" ref="Y32" si="43">+Y13/X13-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="Z32" s="11">
-        <f t="shared" ref="Z32" si="37">+Z13/Y13-1</f>
+        <f t="shared" ref="Z32" si="44">+Z13/Y13-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AA32" s="11">
-        <f t="shared" ref="AA32" si="38">+AA13/Z13-1</f>
+        <f t="shared" ref="AA32" si="45">+AA13/Z13-1</f>
+        <v>6.999999999999984E-2</v>
+      </c>
+      <c r="AB32" s="11">
+        <f t="shared" ref="AB32" si="46">+AB13/AA13-1</f>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="AC32" s="11">
+        <f t="shared" ref="AC32" si="47">+AC13/AB13-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AB32" s="11">
-        <f t="shared" ref="AB32" si="39">+AB13/AA13-1</f>
+      <c r="AD32" s="11">
+        <f t="shared" ref="AD32" si="48">+AD13/AC13-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AC32" s="11">
-        <f t="shared" ref="AC32" si="40">+AC13/AB13-1</f>
-        <v>6.999999999999984E-2</v>
-      </c>
-      <c r="AD32" s="11">
-        <f t="shared" ref="AD32" si="41">+AD13/AC13-1</f>
-        <v>7.0000000000000062E-2</v>
-      </c>
       <c r="AE32" s="11">
-        <f t="shared" ref="AE32" si="42">+AE13/AD13-1</f>
+        <f t="shared" ref="AE32" si="49">+AE13/AD13-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
     </row>
@@ -3152,51 +3155,51 @@
         <v>19</v>
       </c>
       <c r="C33" s="7">
-        <f t="shared" ref="C33:N33" si="43">+C15/C13</f>
+        <f t="shared" ref="C33:N33" si="50">+C15/C13</f>
         <v>0.67687049860930992</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.65027094622759485</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.67372063028450158</v>
       </c>
       <c r="F33" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.68919762805766527</v>
       </c>
       <c r="G33" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.70524500899051956</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.70700719698200065</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.70847742883189457</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.70747922265159124</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.71278703883480177</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.71098231337706541</v>
       </c>
       <c r="M33" s="7">
-        <f t="shared" si="43"/>
-        <v>0.7</v>
+        <f t="shared" si="50"/>
+        <v>0.71289260385005071</v>
       </c>
       <c r="N33" s="7">
-        <f t="shared" si="43"/>
+        <f t="shared" si="50"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="Q33" s="7">
@@ -3216,285 +3219,286 @@
         <v>0.70717196063801113</v>
       </c>
       <c r="U33" s="7">
-        <f t="shared" ref="U33:AE33" si="44">+U15/U13</f>
-        <v>0.70523248432609309</v>
+        <f t="shared" ref="U33:AE33" si="51">+U15/U13</f>
+        <v>0.70866738342556157</v>
       </c>
       <c r="V33" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.65</v>
       </c>
       <c r="W33" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="X33" s="7">
+        <f t="shared" si="51"/>
         <v>0.65</v>
       </c>
-      <c r="X33" s="7">
-        <f t="shared" si="44"/>
-        <v>0.65000000000000013</v>
-      </c>
       <c r="Y33" s="7">
-        <f t="shared" si="44"/>
-        <v>0.65000000000000013</v>
+        <f t="shared" si="51"/>
+        <v>0.64999999999999991</v>
       </c>
       <c r="Z33" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.65</v>
       </c>
       <c r="AA33" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.65</v>
       </c>
       <c r="AB33" s="7">
-        <f t="shared" si="44"/>
-        <v>0.65000000000000013</v>
+        <f t="shared" si="51"/>
+        <v>0.65</v>
       </c>
       <c r="AC33" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.65</v>
       </c>
       <c r="AD33" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.65</v>
       </c>
       <c r="AE33" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="51"/>
         <v>0.65</v>
       </c>
     </row>
-    <row r="34" spans="2:31" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="21" t="s">
+    <row r="34" spans="2:31" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="22">
-        <f>+C20/C19</f>
+      <c r="C34" s="19">
+        <f t="shared" ref="C34:N34" si="52">+C20/C19</f>
         <v>0.24261934673366833</v>
       </c>
-      <c r="D34" s="22">
-        <f>+D20/D19</f>
+      <c r="D34" s="19">
+        <f t="shared" si="52"/>
         <v>0.12146447595468532</v>
       </c>
-      <c r="E34" s="22">
-        <f>+E20/E19</f>
+      <c r="E34" s="19">
+        <f t="shared" si="52"/>
         <v>0.18155191442397481</v>
       </c>
-      <c r="F34" s="22">
-        <f>+F20/F19</f>
+      <c r="F34" s="19">
+        <f t="shared" si="52"/>
         <v>-0.98812322157614207</v>
       </c>
-      <c r="G34" s="22">
-        <f>+G20/G19</f>
+      <c r="G34" s="19">
+        <f t="shared" si="52"/>
         <v>0.10877747543708144</v>
       </c>
-      <c r="H34" s="22">
-        <f>+H20/H19</f>
+      <c r="H34" s="19">
+        <f t="shared" si="52"/>
         <v>0.16278309008555611</v>
       </c>
-      <c r="I34" s="22">
-        <f>+I20/I19</f>
+      <c r="I34" s="19">
+        <f t="shared" si="52"/>
         <v>0.11599158337716997</v>
       </c>
-      <c r="J34" s="22">
-        <f>+J20/J19</f>
+      <c r="J34" s="19">
+        <f t="shared" si="52"/>
         <v>-0.35366240355142375</v>
       </c>
-      <c r="K34" s="22">
-        <f>+K20/K19</f>
+      <c r="K34" s="19">
+        <f t="shared" si="52"/>
         <v>-6.8812195638365495E-3</v>
       </c>
-      <c r="L34" s="22">
-        <f>+L20/L19</f>
+      <c r="L34" s="19">
+        <f t="shared" si="52"/>
         <v>0.3194504079003867</v>
       </c>
-      <c r="M34" s="22">
-        <f>+M20/M19</f>
+      <c r="M34" s="19">
+        <f t="shared" si="52"/>
+        <v>0.34318873668188726</v>
+      </c>
+      <c r="N34" s="19">
+        <f t="shared" si="52"/>
         <v>0.15</v>
       </c>
-      <c r="N34" s="22">
-        <f>+N20/N19</f>
-        <v>0.15</v>
-      </c>
-      <c r="O34" s="22"/>
-      <c r="P34" s="22"/>
-      <c r="R34" s="21">
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="R34" s="18">
         <f>+R20/R19</f>
         <v>0.14367567991837074</v>
       </c>
-      <c r="S34" s="21">
+      <c r="S34" s="18">
         <f>+S20/S19</f>
         <v>3.9704092143459074E-2</v>
       </c>
-      <c r="T34" s="21">
+      <c r="T34" s="18">
         <f>+T20/T19</f>
         <v>9.4524434357046591E-2</v>
       </c>
-      <c r="U34" s="21">
+      <c r="U34" s="18">
         <f>+U20/U19</f>
-        <v>0.13883246810056774</v>
-      </c>
-      <c r="V34" s="21">
-        <f t="shared" ref="V34:AE34" si="45">+V20/V19</f>
-        <v>0.14999999999999997</v>
-      </c>
-      <c r="W34" s="21">
-        <f t="shared" si="45"/>
+        <v>0.165140411488199</v>
+      </c>
+      <c r="V34" s="18">
+        <f t="shared" ref="V34:AE34" si="53">+V20/V19</f>
+        <v>0.15</v>
+      </c>
+      <c r="W34" s="18">
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
-      <c r="X34" s="21">
-        <f t="shared" si="45"/>
+      <c r="X34" s="18">
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
-      <c r="Y34" s="21">
-        <f t="shared" si="45"/>
+      <c r="Y34" s="18">
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
-      <c r="Z34" s="21">
-        <f t="shared" si="45"/>
+      <c r="Z34" s="18">
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
-      <c r="AA34" s="21">
-        <f t="shared" si="45"/>
+      <c r="AA34" s="18">
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
-      <c r="AB34" s="21">
-        <f t="shared" si="45"/>
+      <c r="AB34" s="18">
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
-      <c r="AC34" s="21">
-        <f t="shared" si="45"/>
+      <c r="AC34" s="18">
+        <f t="shared" si="53"/>
         <v>0.2</v>
       </c>
-      <c r="AD34" s="21">
-        <f t="shared" si="45"/>
+      <c r="AD34" s="18">
+        <f t="shared" si="53"/>
+        <v>0.2</v>
+      </c>
+      <c r="AE34" s="18">
+        <f t="shared" si="53"/>
         <v>0.20000000000000004</v>
-      </c>
-      <c r="AE34" s="21">
-        <f t="shared" si="45"/>
-        <v>0.2</v>
       </c>
     </row>
     <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="22">
+      <c r="C35" s="19">
         <f>+C21/C13</f>
         <v>0.11801698191695011</v>
       </c>
-      <c r="D35" s="22">
-        <f t="shared" ref="D35:N35" si="46">+D21/D13</f>
+      <c r="D35" s="19">
+        <f t="shared" ref="D35:N35" si="54">+D21/D13</f>
         <v>9.570981372957682E-2</v>
       </c>
-      <c r="E35" s="22">
-        <f t="shared" si="46"/>
+      <c r="E35" s="19">
+        <f t="shared" si="54"/>
         <v>0.13157769027617605</v>
       </c>
-      <c r="F35" s="22">
-        <f t="shared" si="46"/>
+      <c r="F35" s="19">
+        <f t="shared" si="54"/>
         <v>8.5772082174672096E-2</v>
       </c>
-      <c r="G35" s="22">
-        <f t="shared" si="46"/>
+      <c r="G35" s="19">
+        <f t="shared" si="54"/>
         <v>0.252830049135847</v>
       </c>
-      <c r="H35" s="22">
-        <f t="shared" si="46"/>
+      <c r="H35" s="19">
+        <f t="shared" si="54"/>
         <v>0.15438477636457285</v>
       </c>
-      <c r="I35" s="22">
-        <f t="shared" si="46"/>
+      <c r="I35" s="19">
+        <f t="shared" si="54"/>
         <v>9.9238585237485327E-2</v>
       </c>
-      <c r="J35" s="22">
-        <f t="shared" si="46"/>
+      <c r="J35" s="19">
+        <f t="shared" si="54"/>
         <v>3.9879430658616086E-2</v>
       </c>
-      <c r="K35" s="22">
-        <f t="shared" si="46"/>
+      <c r="K35" s="19">
+        <f t="shared" si="54"/>
         <v>0.14655892405316856</v>
       </c>
-      <c r="L35" s="22">
-        <f t="shared" si="46"/>
+      <c r="L35" s="19">
+        <f t="shared" si="54"/>
         <v>6.3173627833596216E-2</v>
       </c>
-      <c r="M35" s="22">
-        <f t="shared" si="46"/>
-        <v>0.14384634064756821</v>
-      </c>
-      <c r="N35" s="22">
-        <f t="shared" si="46"/>
-        <v>0.2006450449384439</v>
-      </c>
-      <c r="P35" s="22">
-        <f t="shared" ref="P35:AE35" si="47">+P21/P13</f>
+      <c r="M35" s="19">
+        <f t="shared" si="54"/>
+        <v>4.8578745919171482E-2</v>
+      </c>
+      <c r="N35" s="19">
+        <f t="shared" si="54"/>
+        <v>0.11936867908894611</v>
+      </c>
+      <c r="P35" s="19">
+        <f t="shared" ref="P35:AE35" si="55">+P21/P13</f>
         <v>6.3227635751685482E-2</v>
       </c>
-      <c r="Q35" s="22">
-        <f t="shared" si="47"/>
+      <c r="Q35" s="19">
+        <f t="shared" si="55"/>
         <v>3.6088145610009299E-3</v>
       </c>
-      <c r="R35" s="22">
-        <f t="shared" si="47"/>
+      <c r="R35" s="19">
+        <f t="shared" si="55"/>
         <v>5.564126429600532E-2</v>
       </c>
-      <c r="S35" s="22">
-        <f t="shared" si="47"/>
+      <c r="S35" s="19">
+        <f t="shared" si="55"/>
         <v>0.10629806994630692</v>
       </c>
-      <c r="T35" s="22">
-        <f t="shared" si="47"/>
+      <c r="T35" s="19">
+        <f t="shared" si="55"/>
         <v>0.12467917791415838</v>
       </c>
-      <c r="U35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.14469997573810517</v>
-      </c>
-      <c r="V35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.1196565640918489</v>
-      </c>
-      <c r="W35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.12961810758997211</v>
-      </c>
-      <c r="X35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.1438825798580716</v>
-      </c>
-      <c r="Y35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.16216622601365646</v>
-      </c>
-      <c r="Z35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.1796673454547586</v>
-      </c>
-      <c r="AA35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.19641007359553417</v>
-      </c>
-      <c r="AB35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.21241873704226094</v>
-      </c>
-      <c r="AC35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.22771772528160025</v>
-      </c>
-      <c r="AD35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.24233137833903715</v>
-      </c>
-      <c r="AE35" s="22">
-        <f t="shared" si="47"/>
-        <v>0.25628388886709697</v>
+      <c r="U35" s="19">
+        <f t="shared" si="55"/>
+        <v>9.5426265525938456E-2</v>
+      </c>
+      <c r="V35" s="19">
+        <f t="shared" si="55"/>
+        <v>7.7906579836137899E-2</v>
+      </c>
+      <c r="W35" s="19">
+        <f t="shared" si="55"/>
+        <v>9.2643459229616892E-2</v>
+      </c>
+      <c r="X35" s="19">
+        <f t="shared" si="55"/>
+        <v>0.10903339006732615</v>
+      </c>
+      <c r="Y35" s="19">
+        <f t="shared" si="55"/>
+        <v>0.12943234191413411</v>
+      </c>
+      <c r="Z35" s="19">
+        <f t="shared" si="55"/>
+        <v>0.14892114737437415</v>
+      </c>
+      <c r="AA35" s="19">
+        <f t="shared" si="55"/>
+        <v>0.16753158657264958</v>
+      </c>
+      <c r="AB35" s="19">
+        <f t="shared" si="55"/>
+        <v>0.18529517677622157</v>
+      </c>
+      <c r="AC35" s="19">
+        <f t="shared" si="55"/>
+        <v>0.20224307077339898</v>
+      </c>
+      <c r="AD35" s="19">
+        <f t="shared" si="55"/>
+        <v>0.21840596967320486</v>
+      </c>
+      <c r="AE35" s="19">
+        <f t="shared" si="55"/>
+        <v>0.2338140486743466</v>
       </c>
     </row>
     <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>31</v>
       </c>
-      <c r="Q37" s="17">
-        <f t="shared" ref="Q37" si="48">+Q33-Q34</f>
-        <v>0.64819716450284492</v>
+      <c r="M37" s="1"/>
+      <c r="Q37" s="1">
+        <f>+Q21</f>
+        <v>1.1480000000000059</v>
       </c>
       <c r="R37" s="1">
         <f>+R21</f>
@@ -3664,7 +3668,10 @@
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
+      <c r="M46" s="8">
+        <f>+M47-M57</f>
+        <v>-180.46600000000001</v>
+      </c>
       <c r="N46" s="14"/>
       <c r="O46" s="14"/>
       <c r="P46" s="14"/>
@@ -3689,6 +3696,9 @@
       <c r="B47" t="s">
         <v>34</v>
       </c>
+      <c r="M47" s="26">
+        <v>73.844999999999999</v>
+      </c>
       <c r="Q47" s="1">
         <v>57.768000000000001</v>
       </c>
@@ -3708,6 +3718,9 @@
       <c r="B48" t="s">
         <v>35</v>
       </c>
+      <c r="M48" s="5">
+        <v>187.744</v>
+      </c>
       <c r="Q48" s="1">
         <v>40.185000000000002</v>
       </c>
@@ -3725,6 +3738,9 @@
       <c r="B49" t="s">
         <v>36</v>
       </c>
+      <c r="M49" s="5">
+        <v>214.786</v>
+      </c>
       <c r="Q49" s="1">
         <v>56.81</v>
       </c>
@@ -3742,6 +3758,9 @@
       <c r="B50" t="s">
         <v>37</v>
       </c>
+      <c r="M50" s="5">
+        <v>82.701999999999998</v>
+      </c>
       <c r="Q50" s="1">
         <v>15.381</v>
       </c>
@@ -3759,6 +3778,9 @@
       <c r="B51" t="s">
         <v>38</v>
       </c>
+      <c r="M51" s="5">
+        <v>19.878</v>
+      </c>
       <c r="Q51" s="1">
         <v>13.77</v>
       </c>
@@ -3776,6 +3798,9 @@
       <c r="B52" t="s">
         <v>39</v>
       </c>
+      <c r="M52" s="5">
+        <v>212.047</v>
+      </c>
       <c r="Q52" s="1">
         <v>94.286000000000001</v>
       </c>
@@ -3793,6 +3818,9 @@
       <c r="B53" t="s">
         <v>40</v>
       </c>
+      <c r="M53" s="5">
+        <v>340.58199999999999</v>
+      </c>
       <c r="Q53" s="1">
         <v>171.62</v>
       </c>
@@ -3810,6 +3838,9 @@
       <c r="B54" t="s">
         <v>41</v>
       </c>
+      <c r="M54" s="5">
+        <v>133.25</v>
+      </c>
       <c r="Q54" s="1">
         <f>2.875+34.698</f>
         <v>37.573</v>
@@ -3824,42 +3855,33 @@
         <v>72.501999999999995</v>
       </c>
     </row>
-    <row r="55" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="15" t="s">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
         <v>42</v>
       </c>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16"/>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="17">
+      <c r="M55" s="5">
+        <f>+SUM(M47:M54)</f>
+        <v>1264.8340000000001</v>
+      </c>
+      <c r="Q55" s="1">
         <f>+SUM(Q47:Q54)</f>
         <v>487.39300000000003</v>
       </c>
-      <c r="R55" s="17">
+      <c r="R55" s="1">
         <f>+SUM(R47:R54)</f>
         <v>464.26400000000001</v>
       </c>
-      <c r="S55" s="17">
+      <c r="S55" s="1">
         <f>+SUM(S47:S54)</f>
         <v>595.51099999999997</v>
       </c>
-      <c r="T55" s="17">
+      <c r="T55" s="1">
         <f>+SUM(T47:T54)</f>
         <v>1129.2809999999999</v>
       </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="M56" s="5"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -3869,6 +3891,10 @@
       <c r="B57" t="s">
         <v>43</v>
       </c>
+      <c r="M57" s="5">
+        <f>100.25+154.061</f>
+        <v>254.31100000000001</v>
+      </c>
       <c r="Q57" s="1">
         <f>16.281+110.255</f>
         <v>126.536</v>
@@ -3890,6 +3916,9 @@
       <c r="B58" t="s">
         <v>44</v>
       </c>
+      <c r="M58" s="5">
+        <v>65.293000000000006</v>
+      </c>
       <c r="Q58" s="1">
         <v>15.699</v>
       </c>
@@ -3907,6 +3936,9 @@
       <c r="B59" t="s">
         <v>45</v>
       </c>
+      <c r="M59" s="5">
+        <v>128.364</v>
+      </c>
       <c r="Q59" s="1">
         <v>41.350999999999999</v>
       </c>
@@ -3924,6 +3956,9 @@
       <c r="B60" t="s">
         <v>46</v>
       </c>
+      <c r="M60" s="5">
+        <v>0.49299999999999999</v>
+      </c>
       <c r="Q60" s="1">
         <v>13.478999999999999</v>
       </c>
@@ -3941,6 +3976,9 @@
       <c r="B61" t="s">
         <v>47</v>
       </c>
+      <c r="M61" s="5">
+        <v>48.116</v>
+      </c>
       <c r="Q61" s="1">
         <v>20.084</v>
       </c>
@@ -3958,6 +3996,9 @@
       <c r="B62" t="s">
         <v>48</v>
       </c>
+      <c r="M62" s="5">
+        <v>0.87</v>
+      </c>
       <c r="Q62" s="1">
         <v>0.59799999999999998</v>
       </c>
@@ -3975,6 +4016,10 @@
       <c r="B63" t="s">
         <v>49</v>
       </c>
+      <c r="M63" s="5">
+        <f>+SUM(M57:M62)</f>
+        <v>497.44700000000006</v>
+      </c>
       <c r="Q63" s="1">
         <f>+SUM(Q57:Q62)</f>
         <v>217.74700000000001</v>
@@ -3996,6 +4041,9 @@
       <c r="B64" t="s">
         <v>50</v>
       </c>
+      <c r="M64" s="5">
+        <v>767.38699999999994</v>
+      </c>
       <c r="Q64" s="1">
         <v>269.64600000000002</v>
       </c>
@@ -4009,60 +4057,50 @@
         <v>642.572</v>
       </c>
     </row>
-    <row r="65" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="15" t="s">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>51</v>
       </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16"/>
-      <c r="K65" s="16"/>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
-      <c r="N65" s="16"/>
-      <c r="O65" s="16"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="17">
+      <c r="M65" s="5">
+        <f>+M64+M63</f>
+        <v>1264.8340000000001</v>
+      </c>
+      <c r="Q65" s="1">
         <f>+SUM(Q64+Q63)</f>
         <v>487.39300000000003</v>
       </c>
-      <c r="R65" s="17">
+      <c r="R65" s="1">
         <f>+SUM(R64+R63)</f>
         <v>494.63199999999995</v>
       </c>
-      <c r="S65" s="17">
+      <c r="S65" s="1">
         <f>+SUM(S64+S63)</f>
         <v>595.601</v>
       </c>
-      <c r="T65" s="17">
+      <c r="T65" s="1">
         <f>+SUM(T64+T63)</f>
         <v>1129.2469999999998</v>
       </c>
     </row>
-    <row r="68" spans="2:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="18" t="s">
+    <row r="68" spans="2:20" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19"/>
-      <c r="O68" s="19"/>
-      <c r="P68" s="19"/>
-      <c r="T68" s="20">
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="T68" s="17">
         <v>77</v>
       </c>
     </row>
@@ -4072,7 +4110,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="P16:Q16 V16:AE16 P14:P15 P17:P21 M14:N21 U15:U20 F15:J19" formula="1"/>
+    <ignoredError sqref="P16:Q16 V16:AE16 P14:P15 P17:P21 M15:N15 U15:U20 F15:J19 N14 M17:N17 N16 M19:N19 N18 M21:N21 N20" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
